--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1390.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1390.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.376454247776406</v>
+        <v>1.19322657585144</v>
       </c>
       <c r="B1">
-        <v>2.513505703517834</v>
+        <v>2.281124591827393</v>
       </c>
       <c r="C1">
-        <v>3.071528045693899</v>
+        <v>6.526005744934082</v>
       </c>
       <c r="D1">
-        <v>3.525610395597463</v>
+        <v>2.302768707275391</v>
       </c>
       <c r="E1">
-        <v>1.237414801558032</v>
+        <v>1.186935305595398</v>
       </c>
     </row>
   </sheetData>
